--- a/data/21-08-2025-lookup_types-export.xlsx
+++ b/data/21-08-2025-lookup_types-export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="411">
   <si>
     <t>Id</t>
   </si>
@@ -1160,6 +1160,90 @@
   </si>
   <si>
     <t>Four-core unarmored optical fiber cable (for ducts/aerial).</t>
+  </si>
+  <si>
+    <t>bef5b83a-47cc-4e95-9e36-fdb95c54de24</t>
+  </si>
+  <si>
+    <t>OFC_PATH_TYPE</t>
+  </si>
+  <si>
+    <t>point_to_point</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>c0531e2c-81b2-4668-9aa2-b6edef24f7c4</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>847cc79c-da4f-4218-80a8-136d78bda6b4</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>449ee05a-2f81-41a2-8d68-dcd9037b9a65</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>eca5507d-7bad-4fe0-b97f-84a3961b7bf3</t>
+  </si>
+  <si>
+    <t>OFC_PATH_STATUSES</t>
+  </si>
+  <si>
+    <t>planned</t>
+  </si>
+  <si>
+    <t>cc3c0de3-81da-4add-8192-790ab98f747e</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>94b0b6e7-fff4-4ecf-a4cb-15f7f41a7973</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>d8bbde2e-0de3-41f9-85ed-1161eb330ba5</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>8be84e6b-a9f9-476f-bda3-da66a1e903f2</t>
+  </si>
+  <si>
+    <t>decommissioned</t>
+  </si>
+  <si>
+    <t>9e714c37-15cd-4649-ac30-477f62c449ec</t>
+  </si>
+  <si>
+    <t>OFC_JOINT_TYPES</t>
+  </si>
+  <si>
+    <t>cross_connect</t>
+  </si>
+  <si>
+    <t>66f06098-8b43-432c-9550-dc9cbb20fd85</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>2c486e65-905d-4e05-8ff2-95d5a4fbe377</t>
+  </si>
+  <si>
+    <t>t_joint</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4500,35 +4584,419 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F91" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="11">
+      <c r="F91" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="8">
         <v>45889.62343733796</v>
       </c>
-      <c r="J91" s="11">
+      <c r="J91" s="8">
         <v>45889.62343733796</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="5">
+        <v>45890.44025252315</v>
+      </c>
+      <c r="J92" s="5">
+        <v>45890.44025252315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="8">
+        <v>45890.440538634255</v>
+      </c>
+      <c r="J93" s="8">
+        <v>45890.440538634255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="5">
+        <v>45890.44077988426</v>
+      </c>
+      <c r="J94" s="5">
+        <v>45890.44077988426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="8">
+        <v>45890.44095556713</v>
+      </c>
+      <c r="J95" s="8">
+        <v>45890.44095556713</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="5">
+        <v>45890.44124663195</v>
+      </c>
+      <c r="J96" s="5">
+        <v>45890.44124663195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="8">
+        <v>45890.44140597222</v>
+      </c>
+      <c r="J97" s="8">
+        <v>45890.44140597222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="5">
+        <v>45890.441553321754</v>
+      </c>
+      <c r="J98" s="5">
+        <v>45890.441553321754</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="8">
+        <v>45890.44170689815</v>
+      </c>
+      <c r="J99" s="8">
+        <v>45890.44170689815</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="5">
+        <v>45890.441861018524</v>
+      </c>
+      <c r="J100" s="5">
+        <v>45890.441861018524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="8">
+        <v>45890.44757209491</v>
+      </c>
+      <c r="J101" s="8">
+        <v>45890.44757209491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="5">
+        <v>45890.447172280095</v>
+      </c>
+      <c r="J102" s="5">
+        <v>45890.44768752315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="11">
+        <v>45890.44732982639</v>
+      </c>
+      <c r="J103" s="11">
+        <v>45890.44780101852</v>
       </c>
     </row>
   </sheetData>
